--- a/CTCAE AE .xlsx
+++ b/CTCAE AE .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachariasawaged/Desktop/itp/Final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E39D7-6C1E-0244-8F3A-65B6220EAD8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B3C779-FDCE-154E-94C6-4DFA328211D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$H$1939</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
   <si>
     <t>Definition</t>
   </si>
@@ -695,13 +696,13 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="31.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.19921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.796875" style="1" customWidth="1"/>
@@ -1241,4 +1242,183 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C11BAC0-9D30-304B-A1BE-438E5E0CE250}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.19921875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CTCAE AE .xlsx
+++ b/CTCAE AE .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachariasawaged/Desktop/itp/Final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B3C779-FDCE-154E-94C6-4DFA328211D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F656EA5-3274-2B42-9A92-5DFE2D57545A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
   <si>
     <t>Definition</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>value1</t>
+  </si>
+  <si>
+    <t>A finding of a cardiac dysrhythmia characterized by an abnormally long corrected QT interval qtc.</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -705,7 +708,7 @@
     <col min="3" max="3" width="92.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.3984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.3984375" style="1" customWidth="1"/>
@@ -1006,7 +1009,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5">
         <v>450</v>
@@ -1024,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
